--- a/tests/polybench-c-4.0/results/scev-aatags-vs-old-polly-code-preparation.xlsx
+++ b/tests/polybench-c-4.0/results/scev-aatags-vs-old-polly-code-preparation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500"/>
+    <workbookView xWindow="-1560" yWindow="0" windowWidth="28800" windowHeight="8520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,12 +199,24 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -214,30 +226,15 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -280,23 +277,23 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -582,11 +579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2108374360"/>
-        <c:axId val="2108377368"/>
+        <c:axId val="-2123477688"/>
+        <c:axId val="-2122130472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108374360"/>
+        <c:axId val="-2123477688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -595,7 +592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108377368"/>
+        <c:crossAx val="-2122130472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,7 +600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108377368"/>
+        <c:axId val="-2122130472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.75"/>
@@ -626,7 +623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108374360"/>
+        <c:crossAx val="-2123477688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -1126,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1197,10 +1194,10 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
@@ -1218,474 +1215,473 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
     <row r="7" spans="1:17" ht="16" thickBot="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>5.6769999999999998E-3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" ref="D8:D37" si="0">C8/B8</f>
         <v>0.3759602649006622</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>6.5108329999999997E-3</v>
       </c>
       <c r="C9" s="6">
         <v>3.186333E-3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>0.4893894529317524</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>8.4273330000000004E-3</v>
       </c>
       <c r="C10" s="6">
         <v>7.093167E-3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>0.84168585719823807</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.88929966699999996</v>
       </c>
       <c r="C11" s="6">
         <v>0.75674683300000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>0.85094694294988427</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2.9687351670000002</v>
       </c>
       <c r="C12" s="6">
         <v>2.6151511670000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>0.88089742597103804</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1.0988690000000001</v>
       </c>
       <c r="C13" s="6">
         <v>0.9751995</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>0.88745746763262945</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>4.6299356669999998</v>
       </c>
       <c r="C14" s="6">
         <v>4.1153645000000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>0.88885997473623213</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>2.8186808330000002</v>
       </c>
       <c r="C15" s="6">
         <v>2.561066667</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>0.9086047050861682</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>4.0978068329999999</v>
       </c>
       <c r="C16" s="6">
         <v>3.7547566670000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>0.9162844467832435</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>2.5167667000000001E-2</v>
       </c>
       <c r="C17" s="6">
         <v>2.3455666999999999E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>0.9319762137666554</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1.7064999999999999E-3</v>
       </c>
       <c r="C18" s="6">
         <v>1.5943330000000001E-3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>0.93427072956343404</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0.84303216700000005</v>
       </c>
       <c r="C19" s="6">
         <v>0.79966366700000002</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>0.94855652999062845</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>0.24466516699999999</v>
       </c>
       <c r="C20" s="6">
         <v>0.234473667</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>0.95834511252678645</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>8.5080156670000004</v>
       </c>
       <c r="C21" s="6">
         <v>8.1915315</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>0.96280164736560769</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>1.7436332999999998E-2</v>
       </c>
       <c r="C22" s="6">
         <v>1.6944500000000001E-2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>0.97179263552720652</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>4.6655000000000004E-3</v>
       </c>
       <c r="C23" s="6">
         <v>4.5865000000000003E-3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>0.9830671953702711</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>27.834739330000001</v>
       </c>
       <c r="C24" s="6">
         <v>27.673919829999999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>0.99422234574955504</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1.7747535000000001</v>
       </c>
       <c r="C25" s="6">
         <v>1.7684029999999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>0.99642175659887411</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>2.8931669999999999E-3</v>
       </c>
       <c r="C26" s="6">
         <v>2.8900000000000002E-3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>0.99890535181688456</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>32.81843533</v>
       </c>
       <c r="C27" s="6">
         <v>32.818347670000001</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>0.99999732894030091</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>6.8840380000000003</v>
       </c>
       <c r="C28" s="6">
         <v>6.8845939999999999</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>1.0000807665500975</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>5.1520223329999997</v>
       </c>
       <c r="C29" s="6">
         <v>5.1601844999999997</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>1.0015842646775266</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>4.0189513330000004</v>
       </c>
       <c r="C30" s="6">
         <v>4.0416636669999999</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>1.0056513085424812</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>23.794923669999999</v>
       </c>
       <c r="C31" s="6">
         <v>23.977189330000002</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>1.0076598547878428</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>4.419431833</v>
       </c>
       <c r="C32" s="6">
         <v>4.4597388330000003</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>1.0091204031475329</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>1.2695643329999999</v>
       </c>
       <c r="C33" s="6">
         <v>1.3272681669999999</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>1.0454516817305706</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>3.5955015000000001</v>
       </c>
       <c r="C34" s="6">
         <v>3.9348836669999998</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>1.0943907733038074</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>3.1452</v>
       </c>
       <c r="C35" s="6">
         <v>3.4732571669999999</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>1.1043040719191148</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>3.1137069999999998</v>
       </c>
       <c r="C36" s="6">
         <v>3.8466300000000002</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>1.2353859884696925</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" thickBot="1">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="5">
         <v>4.6175905000000004</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>7.0758619999999999</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>1.5323710493600502</v>
       </c>
@@ -1701,7 +1697,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
